--- a/public/diplomatura/plantilla_diplomatura.xlsx
+++ b/public/diplomatura/plantilla_diplomatura.xlsx
@@ -143,19 +143,19 @@
     <t>Expediente Informe Final</t>
   </si>
   <si>
-    <t>00-2019-022222</t>
-  </si>
-  <si>
     <t>Facultad de</t>
   </si>
   <si>
     <t>CI</t>
   </si>
   <si>
-    <t>Dejar en blanco</t>
-  </si>
-  <si>
     <t>&lt;NOMBRE DEL MODULO&gt;.&lt;CARGA HORARIA&gt;</t>
+  </si>
+  <si>
+    <t>asignado por SGPos</t>
+  </si>
+  <si>
+    <t>00-2020-0000000</t>
   </si>
 </sst>
 </file>
@@ -680,12 +680,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD7" sqref="AD7"/>
+      <selection pane="bottomLeft" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="11" customWidth="1"/>
@@ -830,17 +830,17 @@
       </c>
     </row>
     <row r="2" spans="1:36" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>42</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>40</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="19"/>
@@ -859,9 +859,7 @@
       <c r="U2" s="16"/>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
-        <v>42</v>
-      </c>
+      <c r="X2" s="16"/>
       <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
@@ -870,18 +868,18 @@
       </c>
       <c r="AA2" s="16"/>
       <c r="AB2" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AD2" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="M3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N3" s="20"/>
     </row>
